--- a/Reports/Template-SEO-audit.xlsx
+++ b/Reports/Template-SEO-audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferry\Documents\P4-sanchez-fernando\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B37F926-C3C6-4237-8221-CD4D65C68379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF5EC6-A91C-47B2-BBCF-F0C3E1965F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="1152" windowWidth="19620" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Use WebP and AVIF to compress images</t>
   </si>
   <si>
-    <t>Recompres images to WebP or AVIF.</t>
-  </si>
-  <si>
     <t>https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -212,6 +209,27 @@
   </si>
   <si>
     <t>Properly size images</t>
+  </si>
+  <si>
+    <t>Recompres images to WebP.</t>
+  </si>
+  <si>
+    <t>Accessibility-D</t>
+  </si>
+  <si>
+    <t>Ensure text remains visible during webfont load</t>
+  </si>
+  <si>
+    <t>Leverage the font-display CSS feature to ensure text is user-visible while webfonts are loading</t>
+  </si>
+  <si>
+    <t>Preload your fonts earlier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use &lt;link rel="preload" as="font"&gt; . </t>
+  </si>
+  <si>
+    <t>https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
 </sst>
 </file>
@@ -568,17 +586,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="56.26953125" customWidth="1"/>
+    <col min="3" max="3" width="58.08984375" customWidth="1"/>
     <col min="4" max="4" width="23.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="5" max="5" width="82.36328125" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
@@ -625,7 +643,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
@@ -645,7 +663,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
@@ -817,10 +835,10 @@
         <v>43</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
@@ -828,14 +846,19 @@
         <v>41</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
@@ -843,15 +866,40 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E14" s="4"/>
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="E15" s="4"/>
@@ -1853,9 +1901,11 @@
     <hyperlink ref="F10" r:id="rId8" xr:uid="{932EC291-4233-42C0-8FF0-F1B553D9858F}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{4D48C3E1-D565-4600-8511-CBA915044F8B}"/>
     <hyperlink ref="F12" r:id="rId10" xr:uid="{9675FB30-9792-4606-9819-0201DC443FA2}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{9CDC6D4C-1FB8-4232-BC09-B545085EAF35}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{AC913CA1-1BD5-4C3B-8FDE-75B9BC6EF078}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId11"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Reports/Template-SEO-audit.xlsx
+++ b/Reports/Template-SEO-audit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferry\Documents\P4-sanchez-fernando\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF5EC6-A91C-47B2-BBCF-F0C3E1965F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F682A87D-00D0-45A9-955E-43C18D4C0E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgajbA1sRpj4h647px0Becg4xhqcQ=="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Category</t>
   </si>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
   </si>
   <si>
     <t>Background and foreground colors do not have a sufficient contrast ratio.</t>
@@ -112,124 +103,118 @@
     <t>Links do not have a discernible name</t>
   </si>
   <si>
+    <t>Link text that is discernible, unique, and focusable improves the navigation experience for users of screen readers and other assistive technologies.</t>
+  </si>
+  <si>
+    <t>Chose more descriptive at the link text</t>
+  </si>
+  <si>
+    <t>https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Add descritive text to a.social links.</t>
+  </si>
+  <si>
+    <t>Image elements do not have [alt] attributes</t>
+  </si>
+  <si>
+    <t>Informative elements should aim for short, descriptive alternate text.</t>
+  </si>
+  <si>
+    <t>https://web.dev/image-alt/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Implement alt atributes in &lt;img&gt;, you can avoid when the image is used as decorator.</t>
+  </si>
+  <si>
+    <t>Add alt atribute to logo image.</t>
+  </si>
+  <si>
+    <t>Form elements do not have associated labels</t>
+  </si>
+  <si>
+    <t>Labels ensure that form controls are announced properly by assistive technologies, like screen readers.</t>
+  </si>
+  <si>
+    <t>https://web.dev/label/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add labels to form elements,  input the element inside a label element. </t>
+  </si>
+  <si>
+    <t>Document does not have a meta description</t>
+  </si>
+  <si>
+    <t>Meta descriptions may be included in search results to concisely summarize page content.</t>
+  </si>
+  <si>
+    <t>https://web.dev/meta-description/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Add a &lt;meta&gt; description to &lt;head&gt; element.</t>
+  </si>
+  <si>
+    <t>Serve images in next-gen formats</t>
+  </si>
+  <si>
+    <t>Image formats like WebP and AVIF often provide better compression than PNG or JPEG, which means faster downloads and less data consumption.</t>
+  </si>
+  <si>
+    <t>Use WebP and AVIF to compress images</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Recompres images to WebP.</t>
+  </si>
+  <si>
+    <t>Ensure text remains visible during webfont load</t>
+  </si>
+  <si>
+    <t>Leverage the font-display CSS feature to ensure text is user-visible while webfonts are loading</t>
+  </si>
+  <si>
+    <t>Preload your fonts earlier.</t>
+  </si>
+  <si>
+    <t>https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Add "en" lenguange to lang property to main page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set font-display parameter to swap at the et-line.css and font-awestome.css at . </t>
+  </si>
+  <si>
+    <t>Eliminate render-blocking resources</t>
+  </si>
+  <si>
+    <t>Resources are blocking the first paint of your page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deliver JS/CSS inline and deferring all non-critical JS/styles. </t>
+  </si>
+  <si>
+    <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Link the inputs whit the corresponding labels using for.</t>
+  </si>
+  <si>
+    <t>Add a &lt;meta name="description" content="Put your description here."&gt; page 2.</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
     <t>SEO</t>
   </si>
   <si>
-    <t>Link text that is discernible, unique, and focusable improves the navigation experience for users of screen readers and other assistive technologies.</t>
-  </si>
-  <si>
-    <t>Chose more descriptive at the link text</t>
-  </si>
-  <si>
-    <t>https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Add descritive text to a.social links.</t>
-  </si>
-  <si>
-    <t>Change the color of the folowing elements, button.bloc-button.btn.btn-lg.btn-block.cta-hero.btn-atomic-tangerine , a.ltc-atomic-tangerine</t>
-  </si>
-  <si>
-    <t>Add "eng" lenguange to lang property at page2.</t>
-  </si>
-  <si>
-    <t>Add "eng" lenguange to lang property to main page.</t>
-  </si>
-  <si>
-    <t>Image elements do not have [alt] attributes</t>
-  </si>
-  <si>
-    <t>Informative elements should aim for short, descriptive alternate text.</t>
-  </si>
-  <si>
-    <t>https://web.dev/image-alt/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Implement alt atributes in &lt;img&gt;, you can avoid when the image is used as decorator.</t>
-  </si>
-  <si>
-    <t>Add alt atribute to logo image.</t>
-  </si>
-  <si>
-    <t>Form elements do not have associated labels</t>
-  </si>
-  <si>
-    <t>Labels ensure that form controls are announced properly by assistive technologies, like screen readers.</t>
-  </si>
-  <si>
-    <t>https://web.dev/label/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add labels to form elements,  input the element inside a label element. </t>
-  </si>
-  <si>
-    <t>Add label to the following forms, input#name.form-control, 
-input#email.form-control, input#input_504.form-control, 
-textarea#message.form-control .</t>
-  </si>
-  <si>
-    <t>Document does not have a meta description</t>
-  </si>
-  <si>
-    <t>Meta descriptions may be included in search results to concisely summarize page content.</t>
-  </si>
-  <si>
-    <t>https://web.dev/meta-description/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Add a &lt;meta&gt; description to &lt;head&gt; element.</t>
-  </si>
-  <si>
-    <t>Add a &lt;meta name="description" content="Put your description here."&gt; to main and page 2.</t>
-  </si>
-  <si>
-    <t>Serve images in next-gen formats</t>
-  </si>
-  <si>
     <t>PERFORMANCE</t>
   </si>
   <si>
-    <t>Image formats like WebP and AVIF often provide better compression than PNG or JPEG, which means faster downloads and less data consumption.</t>
-  </si>
-  <si>
-    <t>Use WebP and AVIF to compress images</t>
-  </si>
-  <si>
-    <t>https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Efficiently encode images</t>
-  </si>
-  <si>
-    <t>Serve images that are appropriately-sized to save cellular data and improve load time.</t>
-  </si>
-  <si>
-    <t>https://web.dev/uses-responsive-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
-  </si>
-  <si>
-    <t>Properly size images</t>
-  </si>
-  <si>
-    <t>Recompres images to WebP.</t>
-  </si>
-  <si>
-    <t>Accessibility-D</t>
-  </si>
-  <si>
-    <t>Ensure text remains visible during webfont load</t>
-  </si>
-  <si>
-    <t>Leverage the font-display CSS feature to ensure text is user-visible while webfonts are loading</t>
-  </si>
-  <si>
-    <t>Preload your fonts earlier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use &lt;link rel="preload" as="font"&gt; . </t>
-  </si>
-  <si>
-    <t>https://web.dev/font-display/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+    <t>Modify the the links to preload and add 'defer' to the script.</t>
   </si>
 </sst>
 </file>
@@ -342,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,9 +349,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,10 +568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -595,7 +579,7 @@
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="56.26953125" customWidth="1"/>
     <col min="3" max="3" width="58.08984375" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" customWidth="1"/>
+    <col min="4" max="4" width="48.6328125" customWidth="1"/>
     <col min="5" max="5" width="82.36328125" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
@@ -646,19 +630,19 @@
         <v>50</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
@@ -666,244 +650,173 @@
         <v>50</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="E15" s="4"/>
-    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -1883,33 +1796,29 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{619A2B28-7E42-483E-A033-338969A0727E}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{5506249C-E85B-4336-BDC5-9225F762CEA8}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{D6051BDA-9BA2-47D8-A25D-CBC13D0F6D68}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{32F10499-6597-4865-B6EB-70F0BE6B5A0A}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{CC05BD29-F2D5-407F-80DE-30DE228A2F46}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{0899E0EA-50DF-4A57-B1C1-4DDA6A5270F8}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{B5C958B0-195A-4EBA-937A-1F75EA9938E7}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{932EC291-4233-42C0-8FF0-F1B553D9858F}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{4D48C3E1-D565-4600-8511-CBA915044F8B}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{9675FB30-9792-4606-9819-0201DC443FA2}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{9CDC6D4C-1FB8-4232-BC09-B545085EAF35}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{AC913CA1-1BD5-4C3B-8FDE-75B9BC6EF078}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{0899E0EA-50DF-4A57-B1C1-4DDA6A5270F8}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{B5C958B0-195A-4EBA-937A-1F75EA9938E7}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{932EC291-4233-42C0-8FF0-F1B553D9858F}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{4D48C3E1-D565-4600-8511-CBA915044F8B}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{AC913CA1-1BD5-4C3B-8FDE-75B9BC6EF078}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{4040F865-C1E4-4E7F-8B33-B257C9CB6E60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId13"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100367151D3098419409CF6883D244A07CD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f2a305d73b2b562e6fa41c5f8edc8dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="14896414-89e3-4d87-9c9c-38237527ad2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45c19710e816d70cac5d0ae3c26ecedd" ns3:_="">
     <xsd:import namespace="14896414-89e3-4d87-9c9c-38237527ad2e"/>
@@ -2041,12 +1950,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2057,6 +1960,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AED6F9B-72A3-450A-81C9-3B0222E0AD7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="14896414-89e3-4d87-9c9c-38237527ad2e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F430D83-A895-4869-BCFE-748E2A8C39AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2074,22 +1993,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AED6F9B-72A3-450A-81C9-3B0222E0AD7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="14896414-89e3-4d87-9c9c-38237527ad2e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1872B1DD-DF5A-4795-9364-71D50D9589FE}">
   <ds:schemaRefs>
